--- a/BMA_Hydration/data/Model_Metadata.xlsx
+++ b/BMA_Hydration/data/Model_Metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26621"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="42240" yWindow="0" windowWidth="25780" windowHeight="16720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Metadata" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,6 @@
     <t>alc-1</t>
   </si>
   <si>
-    <t>exp-2</t>
-  </si>
-  <si>
     <t>alc-2</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>exp-4</t>
+  </si>
+  <si>
+    <t>hyb-2</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -763,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -789,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -815,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -841,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1023,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1089,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/BMA_Hydration/data/Model_Metadata.xlsx
+++ b/BMA_Hydration/data/Model_Metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26621"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="30680" yWindow="3120" windowWidth="27740" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Metadata" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +289,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -316,8 +324,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -622,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -669,7 +677,7 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
@@ -793,28 +801,28 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -871,28 +879,28 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>71</v>
       </c>
     </row>
